--- a/performance_data.xlsx
+++ b/performance_data.xlsx
@@ -1,77 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daihoc\Ky2nam3\TK_DGTT\Baitaplon\Maze\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9672"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
-  <si>
-    <t>Name algorithm</t>
-  </si>
-  <si>
-    <t>Runtime (s)</t>
-  </si>
-  <si>
-    <t>Memory Usage (MB)</t>
-  </si>
-  <si>
-    <t>Maze</t>
-  </si>
-  <si>
-    <t>BFS</t>
-  </si>
-  <si>
-    <t>maze1</t>
-  </si>
-  <si>
-    <t>maze2</t>
-  </si>
-  <si>
-    <t>maze3</t>
-  </si>
-  <si>
-    <t>maze4</t>
-  </si>
-  <si>
-    <t>maze5</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,46 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -413,103 +420,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="24.47265625" customWidth="1"/>
-    <col min="2" max="2" width="22.68359375" customWidth="1"/>
-    <col min="3" max="3" width="22.05078125" customWidth="1"/>
-    <col min="4" max="4" width="17.3671875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name algorithm</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Runtime (s)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Memory Usage (MB)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Movement</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Maze</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
-        <v>79.148001194000244</v>
-      </c>
-      <c r="C2" s="2">
-        <v>4.125</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BFS</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.149112462997437</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.18359375</v>
+      </c>
+      <c r="D2" t="n">
+        <v>314</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>maze1</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
-        <v>75.614669799804688</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.42578125</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BFS</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.437373161315918</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.04296875</v>
+      </c>
+      <c r="D3" t="n">
+        <v>486</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>maze2</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>75.811438798904419</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.1640625</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BFS</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.347824096679688</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.04296875</v>
+      </c>
+      <c r="D4" t="n">
+        <v>460</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>maze3</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>79.202574253082275</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-2.34375E-2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BFS</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.111941576004028</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01171875</v>
+      </c>
+      <c r="D5" t="n">
+        <v>236</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>maze4</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>86.50104832649231</v>
-      </c>
-      <c r="C6" s="2">
-        <v>-0.17578125</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BFS</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.57329273223877</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="D6" t="n">
+        <v>636</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>maze5</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/performance_data.xlsx
+++ b/performance_data.xlsx
@@ -1,43 +1,439 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+  <si>
+    <t>Name algorithm</t>
+  </si>
+  <si>
+    <t>Runtime (s)</t>
+  </si>
+  <si>
+    <t>Memory Usage (MB)</t>
+  </si>
+  <si>
+    <t>Movement</t>
+  </si>
+  <si>
+    <t>Maze</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>L_04274</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>A star</t>
+  </si>
+  <si>
+    <t>Dijkstra</t>
+  </si>
+  <si>
+    <t>Bidirectional</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,93 +442,329 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,157 +1047,128 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="19.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="20.6666666666667" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Name algorithm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Runtime (s)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Memory Usage (MB)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Movement</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Maze</t>
-        </is>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>BFS</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1.149112462997437</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.18359375</v>
-      </c>
-      <c r="D2" t="n">
-        <v>314</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>maze1</t>
-        </is>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0.303721427917481</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>534</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>BFS</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1.437373161315918</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.04296875</v>
-      </c>
-      <c r="D3" t="n">
-        <v>486</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>maze2</t>
-        </is>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0.413211584091187</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>554</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>BFS</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1.347824096679688</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.04296875</v>
-      </c>
-      <c r="D4" t="n">
-        <v>460</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>maze3</t>
-        </is>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.307224035263062</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>399</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>BFS</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1.111941576004028</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.01171875</v>
-      </c>
-      <c r="D5" t="n">
-        <v>236</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>maze4</t>
-        </is>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.508587837219238</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>391</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>BFS</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1.57329273223877</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0078125</v>
-      </c>
-      <c r="D6" t="n">
-        <v>636</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>maze5</t>
-        </is>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.265600204467773</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>535</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>